--- a/data/trans_camb/P34_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P34_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>-3,2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 9,25</t>
+          <t>-23,68; 14,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 16,17</t>
+          <t>-20,82; 23,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 19,9</t>
+          <t>-20,22; 21,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 25,6</t>
+          <t>-12,37; 15,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 10,13</t>
+          <t>-10,77; 19,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 14,42</t>
+          <t>-16,06; 9,04</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-11,95; 9,62</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-7,95; 17,5</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-11,72; 11,54</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-24,56%</t>
+          <t>-27,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,17%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>-4,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>35,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>-27,1%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-10,12%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22,09%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-10,1%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-70,77; 69,39</t>
+          <t>-83,09; 214,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-61,97; 122,04</t>
+          <t>-70,81; 284,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,65; 181,68</t>
+          <t>-71,56; 280,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 230,43</t>
+          <t>-71,68; 387,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,44; 68,47</t>
+          <t>-66,22; 451,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 103,48</t>
+          <t>-87,64; 240,4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-60,35; 95,99</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-43,51; 175,92</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-60,12; 127,6</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>13,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8,67</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 22,04</t>
+          <t>-19,67; 24,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 18,21</t>
+          <t>-21,74; 21,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 12,91</t>
+          <t>-12,0; 43,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 15,46</t>
+          <t>-12,1; 18,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 14,2</t>
+          <t>-10,58; 20,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 12,47</t>
+          <t>-13,91; 17,21</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-10,98; 15,4</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-12,74; 13,79</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-7,81; 27,71</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>-3,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>59,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>5,31%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11,52%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6,31%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>40,53%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,49; 118,93</t>
+          <t>-56,44; 168,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,46; 91,16</t>
+          <t>-63,34; 146,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 110,37</t>
+          <t>-40,3; 294,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 132,61</t>
+          <t>-48,91; 166,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 74,3</t>
+          <t>-44,29; 167,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 67,66</t>
+          <t>-55,16; 143,73</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-40,11; 105,82</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-45,25; 95,07</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-30,26; 169,43</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-10,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-4,13</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-3,95</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-6,56</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 20,29</t>
+          <t>-16,72; 17,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 18,83</t>
+          <t>-21,29; 14,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 9,63</t>
+          <t>-26,5; 5,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 7,03</t>
+          <t>-12,88; 9,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 11,17</t>
+          <t>-15,17; 7,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 9,53</t>
+          <t>-15,96; 8,53</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-10,33; 7,93</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-13,53; 5,6</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-16,24; 2,31</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>-8,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>-36,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,58%</t>
+          <t>-7,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>-23,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>-18,96%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-3,93%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-16,23%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-26,93%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 117,76</t>
+          <t>-46,41; 92,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,19; 100,42</t>
+          <t>-55,56; 75,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 49,61</t>
+          <t>-70,91; 36,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,07; 38,37</t>
+          <t>-45,81; 66,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 56,36</t>
+          <t>-56,18; 48,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 46,04</t>
+          <t>-56,53; 58,33</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-35,89; 42,1</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-48,59; 27,7</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-56,81; 12,19</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-3,47</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 9,76</t>
+          <t>-11,36; 13,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 13,08</t>
+          <t>-8,74; 16,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 8,01</t>
+          <t>-17,54; 4,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 10,86</t>
+          <t>-13,35; 8,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 6,63</t>
+          <t>-12,22; 11,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 8,85</t>
+          <t>-12,67; 9,6</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; 7,74</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-6,83; 9,66</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-11,29; 4,12</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>-31,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>-9,71%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,35%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>-3,87%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-5,14%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-16,48%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,95; 75,23</t>
+          <t>-47,64; 110,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,19; 98,56</t>
+          <t>-35,78; 129,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,51; 47,47</t>
+          <t>-72,94; 46,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,23; 65,58</t>
+          <t>-48,16; 50,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,96; 39,34</t>
+          <t>-40,28; 61,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 52,93</t>
+          <t>-44,03; 59,9</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-36,65; 46,04</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-27,43; 56,2</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-45,26; 24,02</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-6,9</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-4,41</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,93</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-4,14</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-5,61</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 9,79</t>
+          <t>-16,78; 11,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 11,01</t>
+          <t>-17,69; 10,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 9,5</t>
+          <t>-19,62; 6,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 7,45</t>
+          <t>-18,86; 12,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 5,73</t>
+          <t>-20,19; 11,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 5,58</t>
+          <t>-20,18; 12,07</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-13,88; 8,29</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-14,62; 7,11</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-16,72; 5,36</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-7,36%</t>
+          <t>-13,2%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-5,25%</t>
+          <t>-18,43%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-9,58%</t>
+          <t>-31,1%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-14,28%</t>
+          <t>-11,53%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-8,34%</t>
+          <t>-17,05%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-9,43%</t>
+          <t>-17,76%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-12,55%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-17,76%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-24,06%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,43; 45,46</t>
+          <t>-57,75; 81,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 51,9</t>
+          <t>-59,84; 71,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-45,25; 56,44</t>
+          <t>-67,69; 51,76</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-49,06; 43,18</t>
+          <t>-58,6; 80,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-34,93; 25,94</t>
+          <t>-61,86; 68,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 25,68</t>
+          <t>-62,79; 72,5</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-48,29; 47,95</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-51,78; 40,09</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-56,32; 33,32</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>8,98</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>4,66</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4,19</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 10,72</t>
+          <t>-10,12; 7,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 11,87</t>
+          <t>-10,38; 6,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 8,06</t>
+          <t>-4,85; 18,85</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 8,9</t>
+          <t>-5,62; 17,2</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 6,92</t>
+          <t>-2,94; 22,57</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 7,47</t>
+          <t>-6,43; 16,0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 10,69</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 13,21</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 12,66</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>-4,77%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>59,25%</t>
+          <t>-12,71%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>52,03%</t>
+          <t>112,93%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>62,38%</t>
+          <t>91,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>42,59%</t>
+          <t>151,72%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>57,72%</t>
+          <t>55,55%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>52,04%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>85,93%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>77,23%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-60,43; 492,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-48,09; 527,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-66,78; 664,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-55,27; 715,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-42,19; 248,0</t>
+          <t>-59,99; 1121,19</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-35,51; 321,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-62,28; 432,56</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-49,51; 486,49</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-55,27; 463,51</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-2,13</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 7,07</t>
+          <t>-6,96; 6,03</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 7,45</t>
+          <t>-7,79; 6,13</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 4,82</t>
+          <t>-7,69; 8,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 5,69</t>
+          <t>-5,39; 5,57</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,61</t>
+          <t>-5,21; 5,76</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 4,96</t>
+          <t>-7,77; 3,25</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 4,03</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 4,51</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 3,31</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>-4,41%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>-2,86%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>-11,42%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-1,56%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-6,85%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 38,41</t>
+          <t>-29,9; 35,51</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 39,68</t>
+          <t>-32,27; 36,34</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 27,78</t>
+          <t>-32,21; 45,78</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 33,44</t>
+          <t>-25,45; 35,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 24,49</t>
+          <t>-24,44; 34,89</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 27,08</t>
+          <t>-36,28; 22,25</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-20,81; 23,32</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-19,59; 26,56</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-28,43; 18,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
